--- a/multi-material/material-bc-load.xlsx
+++ b/multi-material/material-bc-load.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\single-material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\multi-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286BB45-7535-4CC1-BEE1-86F58EDB8DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1903BE7-028A-4305-890B-6014E81249B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
-    <sheet name="BC" sheetId="1" r:id="rId1"/>
+    <sheet name="MATERIALS" sheetId="2" r:id="rId1"/>
+    <sheet name="BC" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>DisplacementX</t>
   </si>
@@ -58,13 +59,55 @@
   </si>
   <si>
     <t>EndY</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Elasticity</t>
+  </si>
+  <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +119,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -422,10 +471,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAB018B-B27E-4F3E-99F2-68B89AC3A6E1}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FD6F66-486A-43CF-96DE-A1602AFF4D49}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
